--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -130,17 +130,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:T12"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,88 +459,88 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D6" s="9"/>
-      <c r="E6" s="5">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
         <v>128</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
         <v>200</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
         <v>256</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
         <v>512</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
         <v>128</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <v>200</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
         <v>256</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7">
         <v>512</v>
       </c>
-      <c r="T6" s="5"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="9"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
@@ -610,7 +610,7 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>200</v>
       </c>
       <c r="E9" s="3"/>
@@ -633,13 +633,21 @@
       <c r="P9" s="4">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
+      <c r="Q9" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.59399999999999997</v>
+      </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>400</v>
       </c>
       <c r="E10" s="3"/>
@@ -660,7 +668,7 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>600</v>
       </c>
       <c r="E11" s="3"/>
@@ -681,7 +689,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,8 +613,12 @@
       <c r="D9" s="6">
         <v>200</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.58299999999999996</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,12 +619,24 @@
       <c r="F9" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="3">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.63100000000000001</v>
+      </c>
       <c r="M9" s="3">
         <v>0.91</v>
       </c>

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +674,18 @@
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
+      <c r="M10" s="3">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.59299999999999997</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="4"/>
       <c r="S10" s="3"/>

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,14 +666,30 @@
       <c r="D10" s="6">
         <v>400</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
+      <c r="E10" s="3">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.59199999999999997</v>
+      </c>
       <c r="M10" s="3">
         <v>0.94399999999999995</v>
       </c>
@@ -686,10 +702,18 @@
       <c r="P10" s="4">
         <v>0.59299999999999997</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
+      <c r="Q10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.59099999999999997</v>
+      </c>
     </row>
     <row r="11" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D11" s="6">

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="D4:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,22 +719,54 @@
       <c r="D11" s="6">
         <v>600</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4"/>
+      <c r="E11" s="3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.57799999999999996</v>
+      </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>

--- a/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
+++ b/SHDFinal/RecurrentSNN/Training-TestAccuracies.xlsx
@@ -158,6 +158,1335 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Uniform Distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RSNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31318072845642897"/>
+          <c:y val="2.2988505747126436E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Train-128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test-128units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Train-200units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test-200units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Train-256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Test-256units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Train-512units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$9:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Test-512units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1547709984"/>
+        <c:axId val="-1349330528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1547709984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1349330528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1349330528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1547709984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +2098,9 @@
       </c>
     </row>
     <row r="12" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>800</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
@@ -803,5 +2134,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>